--- a/200_2025改修/ソース/master.xlsx
+++ b/200_2025改修/ソース/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\99_ETC\01_サントク\03_姫路市市場\20_ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\200_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD702AA-66DB-42C6-813F-88F8917900E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC2B838-B9C8-4961-90F9-24C5888C8841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8325" yWindow="4320" windowWidth="2040" windowHeight="990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
